--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.04027</v>
+      </c>
+      <c r="H2">
+        <v>0.12081</v>
+      </c>
+      <c r="I2">
+        <v>0.01318991723029425</v>
+      </c>
+      <c r="J2">
+        <v>0.01318991723029425</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.01246433333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.037393</v>
-      </c>
-      <c r="I2">
-        <v>0.0065371131913745</v>
-      </c>
-      <c r="J2">
-        <v>0.0065371131913745</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N2">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O2">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P2">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q2">
-        <v>0.02651657703077778</v>
+        <v>0.00384759715</v>
       </c>
       <c r="R2">
-        <v>0.238649193277</v>
+        <v>0.03462837435</v>
       </c>
       <c r="S2">
-        <v>0.0004012254394981262</v>
+        <v>0.0001358529585876448</v>
       </c>
       <c r="T2">
-        <v>0.0004012254394981262</v>
+        <v>0.0001358529585876448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P3">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q3">
-        <v>0.04638205699677777</v>
+        <v>0.1498520125633333</v>
       </c>
       <c r="R3">
-        <v>0.4174385129709999</v>
+        <v>1.34866811307</v>
       </c>
       <c r="S3">
-        <v>0.0007018123486209806</v>
+        <v>0.005291052691688826</v>
       </c>
       <c r="T3">
-        <v>0.0007018123486209807</v>
+        <v>0.005291052691688826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N4">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O4">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P4">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q4">
-        <v>0.3591324598004444</v>
+        <v>0.21986228008</v>
       </c>
       <c r="R4">
-        <v>3.232192138204</v>
+        <v>1.97876052072</v>
       </c>
       <c r="S4">
-        <v>0.005434075403255393</v>
+        <v>0.007763011580017781</v>
       </c>
       <c r="T4">
-        <v>0.005434075403255394</v>
+        <v>0.007763011580017781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N5">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O5">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P5">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q5">
-        <v>2.115425474165667</v>
+        <v>0.09500736828499999</v>
       </c>
       <c r="R5">
-        <v>19.038829267491</v>
+        <v>0.855066314565</v>
       </c>
       <c r="S5">
-        <v>0.03200875115262778</v>
+        <v>0.003354569505579145</v>
       </c>
       <c r="T5">
-        <v>0.03200875115262779</v>
+        <v>0.003354569505579145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P6">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q6">
-        <v>3.700243240343666</v>
+        <v>3.700243240343667</v>
       </c>
       <c r="R6">
         <v>33.302189163093</v>
       </c>
       <c r="S6">
-        <v>0.05598881479436983</v>
+        <v>0.1306501102108938</v>
       </c>
       <c r="T6">
-        <v>0.05598881479436984</v>
+        <v>0.1306501102108938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N7">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O7">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P7">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q7">
-        <v>28.65067965521467</v>
+        <v>5.428982245592</v>
       </c>
       <c r="R7">
-        <v>257.856116896932</v>
+        <v>48.860840210328</v>
       </c>
       <c r="S7">
-        <v>0.4335167968037821</v>
+        <v>0.1916893249033281</v>
       </c>
       <c r="T7">
-        <v>0.4335167968037822</v>
+        <v>0.1916893249033281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N8">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O8">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P8">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q8">
-        <v>1.914370919759222</v>
+        <v>0.1928524867666666</v>
       </c>
       <c r="R8">
-        <v>17.229338277833</v>
+        <v>1.7356723809</v>
       </c>
       <c r="S8">
-        <v>0.02896657109065394</v>
+        <v>0.006809335769010091</v>
       </c>
       <c r="T8">
-        <v>0.02896657109065395</v>
+        <v>0.006809335769010091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P9">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q9">
-        <v>3.348564221173222</v>
+        <v>7.511008076775553</v>
       </c>
       <c r="R9">
-        <v>30.137077990559</v>
+        <v>67.59907269097999</v>
       </c>
       <c r="S9">
-        <v>0.05066751827615204</v>
+        <v>0.2652025743406259</v>
       </c>
       <c r="T9">
-        <v>0.05066751827615205</v>
+        <v>0.2652025743406259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N10">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O10">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P10">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q10">
-        <v>25.92765787927955</v>
+        <v>11.02012133978666</v>
       </c>
       <c r="R10">
-        <v>233.348920913516</v>
+        <v>99.18109205807998</v>
       </c>
       <c r="S10">
-        <v>0.3923144346910397</v>
+        <v>0.3891041680402686</v>
       </c>
       <c r="T10">
-        <v>0.3923144346910398</v>
+        <v>0.3891041680402688</v>
       </c>
     </row>
   </sheetData>
